--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/154.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/154.xlsx
@@ -479,13 +479,13 @@
         <v>0.0521525580787314</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.882597971672259</v>
+        <v>-2.009559059744134</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08933656832188765</v>
+        <v>0.1172428789658183</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.109500621901363</v>
+        <v>-0.103600859195179</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.05864148843030369</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.021736735976086</v>
+        <v>-2.167238802700426</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0386137350814889</v>
+        <v>0.06047329213613929</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1002267780114088</v>
+        <v>-0.1009294066310225</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.06562379958450243</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.144958400378819</v>
+        <v>-2.295443519032191</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01272260235353384</v>
+        <v>0.04342722906238457</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1168007624813605</v>
+        <v>-0.1150624885526285</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.06890623998466809</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.190285875312705</v>
+        <v>-2.383330648868879</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02151826843291758</v>
+        <v>0.05705407682228968</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1329898870042842</v>
+        <v>-0.1373087353163372</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.06548099644351819</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.114828318947465</v>
+        <v>-2.324534905551043</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02580601079045643</v>
+        <v>0.05984080439435156</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1375502639043294</v>
+        <v>-0.1376063766065903</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.05433833861449858</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.850119085714748</v>
+        <v>-2.019977724744344</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1471094746648172</v>
+        <v>0.1630625598858394</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1404467771982059</v>
+        <v>-0.1371550353057967</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.03633080399492895</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.510675662039414</v>
+        <v>-1.699854758346359</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2071775125143497</v>
+        <v>0.2068609636831174</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1177095442897151</v>
+        <v>-0.108726022641893</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.01354528991962741</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.118076431544133</v>
+        <v>-1.298439734389362</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2437861713741216</v>
+        <v>0.2129583406885678</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1007482601900284</v>
+        <v>-0.09623484718209273</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.01086640585281209</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.6395881713491909</v>
+        <v>-0.8467715161130619</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2550227400018511</v>
+        <v>0.2085358058614676</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.06521123195930276</v>
+        <v>-0.04314247211252778</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.0323527214093992</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.04301621853244093</v>
+        <v>-0.2873467821136524</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2199346133892121</v>
+        <v>0.1540101172015447</v>
       </c>
       <c r="G11" t="n">
-        <v>0.009513199752485558</v>
+        <v>0.02232519348825526</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.04453402084605611</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5445014618379841</v>
+        <v>0.2665374324581777</v>
       </c>
       <c r="F12" t="n">
-        <v>0.06369367330936904</v>
+        <v>-0.02882519414654387</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0632831966939176</v>
+        <v>0.09889890469194369</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.0404708822924448</v>
       </c>
       <c r="E13" t="n">
-        <v>1.140672696770111</v>
+        <v>0.8329640558266549</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.07169224907042762</v>
+        <v>-0.1643062641519132</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1723559212374496</v>
+        <v>0.1998578544726962</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.01385851260382493</v>
       </c>
       <c r="E14" t="n">
-        <v>1.754919540878342</v>
+        <v>1.406273634032234</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2705294392936782</v>
+        <v>-0.3799357904473914</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2747091496852481</v>
+        <v>0.311504444272105</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.0409032582007922</v>
       </c>
       <c r="E15" t="n">
-        <v>2.394571410935161</v>
+        <v>1.97881471218511</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.5548256651394831</v>
+        <v>-0.674809260669361</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3898829107582909</v>
+        <v>0.4222129760706752</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.128017249143373</v>
       </c>
       <c r="E16" t="n">
-        <v>2.925541515602244</v>
+        <v>2.48510681635029</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.8182937097950184</v>
+        <v>-0.9033770342806957</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5026005212660692</v>
+        <v>0.5312125101329974</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.24763088873522</v>
       </c>
       <c r="E17" t="n">
-        <v>3.450897910360537</v>
+        <v>2.971491719547089</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.118622920470499</v>
+        <v>-1.20577997525712</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6095263250274481</v>
+        <v>0.6460069005451029</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.3957286649811435</v>
       </c>
       <c r="E18" t="n">
-        <v>3.903766452528677</v>
+        <v>3.38452512247546</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.454555640730471</v>
+        <v>-1.532451050040673</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7590855840935161</v>
+        <v>0.7997776618841163</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.5637861842404737</v>
       </c>
       <c r="E19" t="n">
-        <v>4.310387149461719</v>
+        <v>3.737436204614067</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.782752127126571</v>
+        <v>-1.840455502512351</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9156857674519637</v>
+        <v>0.9489953653712054</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.7416236779261324</v>
       </c>
       <c r="E20" t="n">
-        <v>4.679308649364962</v>
+        <v>4.083973615680658</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.085251435569922</v>
+        <v>-2.132593478499106</v>
       </c>
       <c r="G20" t="n">
-        <v>1.05706782000487</v>
+        <v>1.091663130710697</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.918091264065141</v>
       </c>
       <c r="E21" t="n">
-        <v>4.901312456653135</v>
+        <v>4.315786167292292</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.378761733079359</v>
+        <v>-2.406910182231959</v>
       </c>
       <c r="G21" t="n">
-        <v>1.176817205994877</v>
+        <v>1.225544988701633</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.080460623474266</v>
       </c>
       <c r="E22" t="n">
-        <v>5.10415133643653</v>
+        <v>4.504241897676614</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.677504540074619</v>
+        <v>-2.711817457507111</v>
       </c>
       <c r="G22" t="n">
-        <v>1.332398821823155</v>
+        <v>1.341578737928891</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.21707931024197</v>
       </c>
       <c r="E23" t="n">
-        <v>5.218715176832824</v>
+        <v>4.644156481081265</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.975156808899853</v>
+        <v>-3.016115117065853</v>
       </c>
       <c r="G23" t="n">
-        <v>1.439765598233823</v>
+        <v>1.45305454993881</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.318259728352326</v>
       </c>
       <c r="E24" t="n">
-        <v>5.30628392807625</v>
+        <v>4.740164094808177</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.175691408366493</v>
+        <v>-3.219071406579522</v>
       </c>
       <c r="G24" t="n">
-        <v>1.555227851786968</v>
+        <v>1.56658213510531</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.378554885466743</v>
       </c>
       <c r="E25" t="n">
-        <v>5.348651457965877</v>
+        <v>4.807450543867023</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.319183176540271</v>
+        <v>-3.369097864883979</v>
       </c>
       <c r="G25" t="n">
-        <v>1.608941126105462</v>
+        <v>1.642104952982961</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.397235657292636</v>
       </c>
       <c r="E26" t="n">
-        <v>5.340921323308772</v>
+        <v>4.81185295131179</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.401572786357091</v>
+        <v>-3.487384356130805</v>
       </c>
       <c r="G26" t="n">
-        <v>1.658012294153227</v>
+        <v>1.689214006213628</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.377415275718257</v>
       </c>
       <c r="E27" t="n">
-        <v>5.250816521891428</v>
+        <v>4.764452355997638</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.512402997330672</v>
+        <v>-3.58734700048609</v>
       </c>
       <c r="G27" t="n">
-        <v>1.651605687364666</v>
+        <v>1.691188319444261</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.325067755197925</v>
       </c>
       <c r="E28" t="n">
-        <v>5.163994313556342</v>
+        <v>4.691625387511213</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.529719255264226</v>
+        <v>-3.610468483420932</v>
       </c>
       <c r="G28" t="n">
-        <v>1.646684237423986</v>
+        <v>1.681901667220095</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.247938257609154</v>
       </c>
       <c r="E29" t="n">
-        <v>4.9766827943616</v>
+        <v>4.539214749281348</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.508809649663611</v>
+        <v>-3.600346239869621</v>
       </c>
       <c r="G29" t="n">
-        <v>1.606883253742114</v>
+        <v>1.648460936355353</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.154570570247777</v>
       </c>
       <c r="E30" t="n">
-        <v>4.838540640443578</v>
+        <v>4.410000614229565</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.406129198772737</v>
+        <v>-3.481962466274854</v>
       </c>
       <c r="G30" t="n">
-        <v>1.549613531957502</v>
+        <v>1.60632517632289</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.053733557932456</v>
       </c>
       <c r="E31" t="n">
-        <v>4.624886647220087</v>
+        <v>4.238788561218264</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.341342814567882</v>
+        <v>-3.421521766891828</v>
       </c>
       <c r="G31" t="n">
-        <v>1.462244224775373</v>
+        <v>1.506994104828378</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.9529804574713042</v>
       </c>
       <c r="E32" t="n">
-        <v>4.378479913655225</v>
+        <v>4.016061388007468</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.206987353171451</v>
+        <v>-3.278757024164733</v>
       </c>
       <c r="G32" t="n">
-        <v>1.414796665569111</v>
+        <v>1.451438870066104</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.8576394585055317</v>
       </c>
       <c r="E33" t="n">
-        <v>4.123626998558756</v>
+        <v>3.781097986179754</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.081030499493841</v>
+        <v>-3.156900057276224</v>
       </c>
       <c r="G33" t="n">
-        <v>1.300926304982279</v>
+        <v>1.33265864803145</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.7706124786777209</v>
       </c>
       <c r="E34" t="n">
-        <v>3.798613688174604</v>
+        <v>3.472656220582847</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.833567993237528</v>
+        <v>-2.878059266923592</v>
       </c>
       <c r="G34" t="n">
-        <v>1.176026138877135</v>
+        <v>1.179878397871476</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.6940091754567279</v>
       </c>
       <c r="E35" t="n">
-        <v>3.535135274867565</v>
+        <v>3.233974742309676</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.719201157219823</v>
+        <v>-2.771238369518614</v>
       </c>
       <c r="G35" t="n">
-        <v>1.084438620294616</v>
+        <v>1.095806321867847</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.6277012870238785</v>
       </c>
       <c r="E36" t="n">
-        <v>3.233764929596874</v>
+        <v>2.943613465254288</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.58309430860011</v>
+        <v>-2.616748511701714</v>
       </c>
       <c r="G36" t="n">
-        <v>1.005621620841848</v>
+        <v>1.002589095237057</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.570332064702623</v>
       </c>
       <c r="E37" t="n">
-        <v>2.940489451547985</v>
+        <v>2.663274404759225</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.458854076667207</v>
+        <v>-2.499172273082961</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9043619801674593</v>
+        <v>0.9360418700384301</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.519488951488434</v>
       </c>
       <c r="E38" t="n">
-        <v>2.667588983626541</v>
+        <v>2.415158673458115</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.328257251441237</v>
+        <v>-2.367298883880556</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8265617184828304</v>
+        <v>0.8496935700691773</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.4717920949099952</v>
       </c>
       <c r="E39" t="n">
-        <v>2.392920965583881</v>
+        <v>2.163829880031896</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.210539511225477</v>
+        <v>-2.253465118534329</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7209356556836019</v>
+        <v>0.7324747449669983</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.4242653849302923</v>
       </c>
       <c r="E40" t="n">
-        <v>2.130719726173951</v>
+        <v>1.922079280913329</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.138398093579717</v>
+        <v>-2.197500017077281</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6433019023437252</v>
+        <v>0.6423662840255937</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.3750445436897742</v>
       </c>
       <c r="E41" t="n">
-        <v>1.82926521184987</v>
+        <v>1.635065248531935</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.035186096819058</v>
+        <v>-2.086421263427924</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5512807301600388</v>
+        <v>0.5692160575804921</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.3226769714541021</v>
       </c>
       <c r="E42" t="n">
-        <v>1.60560120047959</v>
+        <v>1.414482556420586</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.946640252651481</v>
+        <v>-2.009199206544853</v>
       </c>
       <c r="G42" t="n">
-        <v>0.490598502189021</v>
+        <v>0.5125769937756373</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.2673547952079666</v>
       </c>
       <c r="E43" t="n">
-        <v>1.359049915714339</v>
+        <v>1.176937360368197</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.846384541411019</v>
+        <v>-1.912115082823481</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4243007345471838</v>
+        <v>0.4377897402341439</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.2097341183911133</v>
       </c>
       <c r="E44" t="n">
-        <v>1.181919802376552</v>
+        <v>0.9896642661760892</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.757759407555466</v>
+        <v>-1.842116926435813</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3826736483591289</v>
+        <v>0.4098077994262965</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.1512457741442233</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9843988209737231</v>
+        <v>0.8123182409187331</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.68989536361574</v>
+        <v>-1.786017032509204</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3151944643664307</v>
+        <v>0.3386495739114541</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.09352328654763307</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8201819482040458</v>
+        <v>0.6408512410645516</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.63761784257031</v>
+        <v>-1.737838788332198</v>
       </c>
       <c r="G46" t="n">
-        <v>0.227800150436555</v>
+        <v>0.2553734443909812</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.03793878200077967</v>
       </c>
       <c r="E47" t="n">
-        <v>0.6439624464366434</v>
+        <v>0.4956132699932435</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.569005425960214</v>
+        <v>-1.684202364018973</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1646483536453843</v>
+        <v>0.1861791634552675</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.01448914657923255</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4955358100672965</v>
+        <v>0.364424821710827</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.459353886694448</v>
+        <v>-1.570801642353237</v>
       </c>
       <c r="G48" t="n">
-        <v>0.08175891383396977</v>
+        <v>0.0981145467016457</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.06294401691933606</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3824693249324183</v>
+        <v>0.254894656659734</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.360582722381191</v>
+        <v>-1.47237935266708</v>
       </c>
       <c r="G49" t="n">
-        <v>0.06172667912685655</v>
+        <v>0.0800218597465913</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.1068180599560049</v>
       </c>
       <c r="E50" t="n">
-        <v>0.2905652575186674</v>
+        <v>0.1774225322991957</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.253713031322073</v>
+        <v>-1.390425531173797</v>
       </c>
       <c r="G50" t="n">
-        <v>0.01133259313122501</v>
+        <v>0.02632566320704578</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.145791309174724</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1528354099781279</v>
+        <v>0.04597181812577747</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.160149979667568</v>
+        <v>-1.27499377365449</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.02133231863269398</v>
+        <v>-0.01188037790512932</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.1799554669192413</v>
       </c>
       <c r="E52" t="n">
-        <v>0.09185493079618037</v>
+        <v>-0.01495254835390929</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.090301253845703</v>
+        <v>-1.208297727810736</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.06465620414346203</v>
+        <v>-0.07170688716666958</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.2098348810236399</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.0282658968859659</v>
+        <v>-0.1411817316136874</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.019775516072648</v>
+        <v>-1.131298901895354</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.1177254022273106</v>
+        <v>-0.129603607406979</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.2363820874636015</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.1504726532825905</v>
+        <v>-0.2676085291727318</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9491125461473255</v>
+        <v>-1.059303255291337</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1905029671389191</v>
+        <v>-0.1945101459851538</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.2609029750012674</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.2108151554366596</v>
+        <v>-0.2934703857082029</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9275664883205237</v>
+        <v>-1.011598919480164</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1928395732515409</v>
+        <v>-0.2162568677146058</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.2840987740598658</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.2899810295165273</v>
+        <v>-0.3873609647661223</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.8737842929655567</v>
+        <v>-0.968219531187812</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.2580876674086946</v>
+        <v>-0.2643808289513811</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.3067991083264467</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.3694976079855251</v>
+        <v>-0.4615267091380094</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.8537599872272412</v>
+        <v>-0.9333509760188022</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.2803503820306755</v>
+        <v>-0.2883775480573567</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.3298036292919431</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.4630374826543143</v>
+        <v>-0.5480494464208121</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.8004736573824703</v>
+        <v>-0.8796742969409127</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.3179776084206167</v>
+        <v>-0.3400683254117546</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.3533746964635595</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.5468186264951345</v>
+        <v>-0.6409171885038248</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.8081074245726491</v>
+        <v>-0.8959250234521879</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.3321234986764344</v>
+        <v>-0.3380232613826183</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.3778266310696751</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.6961552645141895</v>
+        <v>-0.8066484943138676</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.8403600299590863</v>
+        <v>-0.9325653981871508</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.3637484956864979</v>
+        <v>-0.3725527006553562</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.402875550882093</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.8273089473180314</v>
+        <v>-0.9453261585860736</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.8483749975722326</v>
+        <v>-0.940258327682974</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.4074840776540709</v>
+        <v>-0.4065075946505973</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.4282138801850513</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.9053861129899038</v>
+        <v>-1.022632994443213</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.8330202445351003</v>
+        <v>-0.8983183521877472</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4401404505285155</v>
+        <v>-0.4368541979221969</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.4535720589065818</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.003658972110258</v>
+        <v>-1.122731346149074</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.8731530250651224</v>
+        <v>-0.9455652474913588</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.4715361173641217</v>
+        <v>-0.4640279938333531</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.478710403656161</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.077062925556887</v>
+        <v>-1.22661364573348</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.8948424142509601</v>
+        <v>-0.9773427246706095</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.497668778680069</v>
+        <v>-0.4826366736809364</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.5034187214391965</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.152965114095476</v>
+        <v>-1.302389580691982</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.9306661051997573</v>
+        <v>-1.00662379651993</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5107851228335361</v>
+        <v>-0.5061918102169464</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.5270601032729285</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.201733151566897</v>
+        <v>-1.362164856616676</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.9549586358339557</v>
+        <v>-1.008597499829887</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.5459934038194943</v>
+        <v>-0.5526439788787553</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.549391627038056</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.244333061234365</v>
+        <v>-1.429175621529631</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.010802972997008</v>
+        <v>-1.055687035598897</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.5843519251008565</v>
+        <v>-0.5773482059697586</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.5701005959736211</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.290873058473625</v>
+        <v>-1.500295422041839</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.031293258132359</v>
+        <v>-1.084444185586892</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.5997200963928774</v>
+        <v>-0.6064017774066522</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.5891887597281872</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.298359224860031</v>
+        <v>-1.4982320603924</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.092426217483494</v>
+        <v>-1.158124433100087</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.6027154168363871</v>
+        <v>-0.5966808616606417</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.6065076697358638</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.306068622214126</v>
+        <v>-1.51189550339291</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.096009501459388</v>
+        <v>-1.153152969663914</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.6230770087089442</v>
+        <v>-0.6185209012536362</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.6220690653668915</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.306060083324652</v>
+        <v>-1.519523171376321</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.138507554373839</v>
+        <v>-1.202974950064756</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.6215351292381252</v>
+        <v>-0.6247152556466895</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.6358169289431196</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.305408078121208</v>
+        <v>-1.500338726409888</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.229194220116801</v>
+        <v>-1.319672902908992</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.6395430372191115</v>
+        <v>-0.6358493576007253</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.647270993927659</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.220582140161119</v>
+        <v>-1.431994674897561</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.291767812106415</v>
+        <v>-1.36839641617101</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.6538767830433676</v>
+        <v>-0.6647736258541485</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.6564488581592672</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.159536399466759</v>
+        <v>-1.363584751952145</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.340792626182747</v>
+        <v>-1.421198468998443</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.6675042407239495</v>
+        <v>-0.67535148015099</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.662515348857821</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.035158325460911</v>
+        <v>-1.232113910396394</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.379004156581013</v>
+        <v>-1.447883718447524</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6650474802380083</v>
+        <v>-0.6749227059152361</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.6651662217202765</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.889318362681653</v>
+        <v>-1.086910094882984</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.406196860033148</v>
+        <v>-1.483445753425997</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.6155633958920849</v>
+        <v>-0.621961463791172</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.6638658966715005</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.7696098413769884</v>
+        <v>-0.9627930669267845</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.447821506538496</v>
+        <v>-1.526148129767158</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5931396622114425</v>
+        <v>-0.6082297096748662</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.6586752012021895</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.5930811098264747</v>
+        <v>-0.7899031221337498</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.501321308620129</v>
+        <v>-1.588585709445857</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5420569757717625</v>
+        <v>-0.5401485339742178</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.6499929890765058</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.3914736598894344</v>
+        <v>-0.5899424580239292</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.50889835318737</v>
+        <v>-1.57714054794668</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4864803937858027</v>
+        <v>-0.4943477605951758</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.6382522484686396</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.1899174432892409</v>
+        <v>-0.3797265876552668</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.599686265762672</v>
+        <v>-1.690203373557498</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.4552225690231414</v>
+        <v>-0.4376373360711414</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.6238372379516253</v>
       </c>
       <c r="E81" t="n">
-        <v>0.04260200638674445</v>
+        <v>-0.1176894169073824</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.596131038137907</v>
+        <v>-1.693485966639756</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.4282061326465862</v>
+        <v>-0.4166475259015338</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.6070769178987193</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2520298592410484</v>
+        <v>0.1004682305932164</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.627454734333657</v>
+        <v>-1.744346032032423</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3267708348172934</v>
+        <v>-0.2941132421014954</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.5887616965005739</v>
       </c>
       <c r="E83" t="n">
-        <v>0.482335906781115</v>
+        <v>0.3573180259853586</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.642874138962525</v>
+        <v>-1.792846924247428</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2928824221758178</v>
+        <v>-0.245580634011299</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.5700053340696762</v>
       </c>
       <c r="E84" t="n">
-        <v>0.7468475257145663</v>
+        <v>0.6194338765005435</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.622473512166656</v>
+        <v>-1.786204278156965</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2056912118312992</v>
+        <v>-0.1537765935885348</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.5515656597102159</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9366334930948758</v>
+        <v>0.82630860140198</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.592448337091703</v>
+        <v>-1.781723800865574</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1553776353649984</v>
+        <v>-0.0968118321422964</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.53497413555687</v>
       </c>
       <c r="E86" t="n">
-        <v>1.150391172833414</v>
+        <v>1.063030404540759</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.516122253682774</v>
+        <v>-1.736840958105038</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1050939450118583</v>
+        <v>-0.05575197218361713</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.5199037676937358</v>
       </c>
       <c r="E87" t="n">
-        <v>1.335458793858401</v>
+        <v>1.240267253996978</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.389454537456414</v>
+        <v>-1.624181290061551</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.02885447033902777</v>
+        <v>0.01783251778332907</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.5067871960116663</v>
       </c>
       <c r="E88" t="n">
-        <v>1.494053417829814</v>
+        <v>1.403826632277121</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.318019407954328</v>
+        <v>-1.558555045084813</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.003239021756962838</v>
+        <v>0.05986276153871449</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.4950998180415256</v>
       </c>
       <c r="E89" t="n">
-        <v>1.581803925434911</v>
+        <v>1.483038250407744</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.14537770087673</v>
+        <v>-1.393344611532713</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02055032431891841</v>
+        <v>0.09406467340803859</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.484736932262598</v>
       </c>
       <c r="E90" t="n">
-        <v>1.72687477824079</v>
+        <v>1.636149687495193</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.026887191163531</v>
+        <v>-1.293138303867068</v>
       </c>
       <c r="G90" t="n">
-        <v>0.07260583423801166</v>
+        <v>0.1391091451479129</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.4749092227491706</v>
       </c>
       <c r="E91" t="n">
-        <v>1.778929678239207</v>
+        <v>1.697338759548588</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.7977406028299623</v>
+        <v>-1.042664009308973</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0813252602328019</v>
+        <v>0.1467075369388402</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.4652204657676701</v>
       </c>
       <c r="E92" t="n">
-        <v>1.848241063944856</v>
+        <v>1.768390248945</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.6196169287097525</v>
+        <v>-0.8245319784767975</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1171885960255877</v>
+        <v>0.1926632301697761</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.4547067642453598</v>
       </c>
       <c r="E93" t="n">
-        <v>1.892594495557975</v>
+        <v>1.81705155029799</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.4012086038110101</v>
+        <v>-0.6019365481321798</v>
       </c>
       <c r="G93" t="n">
-        <v>0.09019838623813264</v>
+        <v>0.1628679951899568</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.4426453019443765</v>
       </c>
       <c r="E94" t="n">
-        <v>1.894765203246521</v>
+        <v>1.85743622806751</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2572764729086197</v>
+        <v>-0.4265855734084666</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02164208233029744</v>
+        <v>0.09894281898066955</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.4280512078792695</v>
       </c>
       <c r="E95" t="n">
-        <v>1.867437097404147</v>
+        <v>1.830505790506376</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.1089480337682292</v>
+        <v>-0.2531930539777915</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01144603837710015</v>
+        <v>0.062371975202856</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.4102189906842978</v>
       </c>
       <c r="E96" t="n">
-        <v>1.838828158140603</v>
+        <v>1.820589090223129</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002562543720264689</v>
+        <v>-0.09768523855139961</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02283333341817095</v>
+        <v>0.01672185223097086</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.389236505618069</v>
       </c>
       <c r="E97" t="n">
-        <v>1.707980045595812</v>
+        <v>1.701336789584672</v>
       </c>
       <c r="F97" t="n">
-        <v>0.09183175381046395</v>
+        <v>0.02063937273772363</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.0364010188724315</v>
+        <v>-0.004847382581547466</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.3647078116382208</v>
       </c>
       <c r="E98" t="n">
-        <v>1.572292212481025</v>
+        <v>1.571726206093003</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1260226871076066</v>
+        <v>0.08352768379653913</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.05904188431399616</v>
+        <v>-0.03767880269021868</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.3382714387899557</v>
       </c>
       <c r="E99" t="n">
-        <v>1.417017386753151</v>
+        <v>1.423714315783845</v>
       </c>
       <c r="F99" t="n">
-        <v>0.169686908356</v>
+        <v>0.1416671524661943</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.07870999637709078</v>
+        <v>-0.05637775079796064</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.3109165525459339</v>
       </c>
       <c r="E100" t="n">
-        <v>1.238049582416322</v>
+        <v>1.257934216319662</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2113725469290228</v>
+        <v>0.1963977744735045</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1036618512628538</v>
+        <v>-0.06640667648572895</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2858415280402399</v>
       </c>
       <c r="E101" t="n">
-        <v>1.114772415232004</v>
+        <v>1.124532365901327</v>
       </c>
       <c r="F101" t="n">
-        <v>0.21901973237409</v>
+        <v>0.215393144030146</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1276482017173247</v>
+        <v>-0.1105533449894301</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2636911316897118</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9422185367318577</v>
+        <v>0.963702992570308</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2122148473836119</v>
+        <v>0.2061375977604942</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1367756646448594</v>
+        <v>-0.106578491939063</v>
       </c>
     </row>
   </sheetData>
